--- a/data/trans_bre/P57GLOBAL_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>5.338371574678346</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.279873138929956</v>
+        <v>3.279873138929978</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00240255061332095</v>
@@ -649,7 +649,7 @@
         <v>0.06707358984415762</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.05512707817071952</v>
+        <v>0.05512707817071991</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.177940625320995</v>
+        <v>-4.283034500884074</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.981027555603366</v>
+        <v>2.684662814313541</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.386194927673488</v>
+        <v>1.381734798282058</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.658212351240758</v>
+        <v>-1.61945873283425</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.05303040345765717</v>
+        <v>-0.0549415549777276</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04471314563646068</v>
+        <v>0.04027699467186657</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01803113556618651</v>
+        <v>0.01698825208069846</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.02593802512671581</v>
+        <v>-0.02563124842367387</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.429483330507789</v>
+        <v>4.557159903785857</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.22883378465041</v>
+        <v>12.79934815907421</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.440683310700534</v>
+        <v>9.569607955215462</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.404277706422416</v>
+        <v>8.141111412747474</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05906985593150637</v>
+        <v>0.06114994564512857</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2156201199141242</v>
+        <v>0.2137353268456169</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1240062137448692</v>
+        <v>0.1247426575541849</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1480380504414101</v>
+        <v>0.1448500783568268</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>5.024047893359507</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.02320870617967</v>
+        <v>3.023208706179692</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05404730966991748</v>
@@ -749,7 +749,7 @@
         <v>0.0616963393078506</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.04588827547377758</v>
+        <v>0.04588827547377792</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04186691080303553</v>
+        <v>-0.4838832915699091</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.767690926484363</v>
+        <v>2.10859119620817</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.742602074327763</v>
+        <v>1.795489323404429</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.135241632017095</v>
+        <v>-0.8623146506581815</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.001350483849310232</v>
+        <v>-0.006586881022176308</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02480459722284462</v>
+        <v>0.03012468069153135</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0208188682425425</v>
+        <v>0.02153973958156272</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.01859884827369298</v>
+        <v>-0.01352204950614521</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.969874077902478</v>
+        <v>7.942682325693011</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.26213562416876</v>
+        <v>10.18224970486388</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.478593914946417</v>
+        <v>8.602002953150519</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.719345882211408</v>
+        <v>7.573654126177125</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1186274057425806</v>
+        <v>0.1201412400664436</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1558939423386693</v>
+        <v>0.1556678247717748</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1063395101487819</v>
+        <v>0.1093564542577383</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1224898284743324</v>
+        <v>0.1213790063636976</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.450584822679642</v>
+        <v>-2.357816514005504</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.154844585314008</v>
+        <v>-0.9355302596278139</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.68691518635645</v>
+        <v>-3.864511046466771</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.020502984353853</v>
+        <v>-6.477656507492631</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.03396050385128388</v>
+        <v>-0.0353513021656227</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.01652809685397953</v>
+        <v>-0.01352309137347575</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.04217692917369575</v>
+        <v>-0.04360481611255193</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.09971676648575054</v>
+        <v>-0.09201386572175206</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.235382993178508</v>
+        <v>7.712881734346704</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.489977705022786</v>
+        <v>9.054261232101632</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.376395718585143</v>
+        <v>3.557836372000482</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.214683506574041</v>
+        <v>3.450337679366967</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1360152485146397</v>
+        <v>0.1253032118762991</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1339464811088455</v>
+        <v>0.1466606754468546</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04005182861166216</v>
+        <v>0.04257434388441732</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.04982080928197532</v>
+        <v>0.05399428905640254</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.555015892806189</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.2698801978325283</v>
+        <v>-0.2698801978325172</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009987483892539811</v>
@@ -949,7 +949,7 @@
         <v>0.01928160560091876</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.004256141431328024</v>
+        <v>-0.004256141431327849</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.310264684439594</v>
+        <v>-3.044926306382768</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.804310938264889</v>
+        <v>3.699574500919173</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.036585606871961</v>
+        <v>-2.011345934301346</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.341279334930169</v>
+        <v>-4.691424716385222</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.04560016003505224</v>
+        <v>-0.04229795802170063</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04828417227336047</v>
+        <v>0.04771650590263204</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02469496898642489</v>
+        <v>-0.02422598173323342</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.06559220088973054</v>
+        <v>-0.07063759694917265</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.138635143783089</v>
+        <v>5.149871228131849</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.07179602537531</v>
+        <v>11.10166941275282</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.238576378451411</v>
+        <v>5.01900490300403</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.229854302089799</v>
+        <v>4.078493334430712</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07584717543308819</v>
+        <v>0.07649467807191629</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1528019180411746</v>
+        <v>0.1531983943169473</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06637230612160322</v>
+        <v>0.06375987153153176</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.06978456079977634</v>
+        <v>0.06700574476948841</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.88134772575277</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9882167630618333</v>
+        <v>0.9882167630618222</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02646873833756958</v>
@@ -1049,7 +1049,7 @@
         <v>0.03517856770355817</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.01536179244209164</v>
+        <v>0.01536179244209147</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2537779414235032</v>
+        <v>-0.2467497475477217</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.097707137643384</v>
+        <v>4.171283558881444</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.177031773334716</v>
+        <v>0.8900245611028179</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.338088540502614</v>
+        <v>-1.349928458322315</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.00358010557111627</v>
+        <v>-0.003394210479591742</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05849161065987684</v>
+        <v>0.05939946023323849</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01424076274828994</v>
+        <v>0.01068441786207376</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.02034123481150011</v>
+        <v>-0.02047256716258623</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.024409413482974</v>
+        <v>4.195553392874501</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.664144064773915</v>
+        <v>8.546607415067504</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.734234016230136</v>
+        <v>4.688907954898143</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.276213867602379</v>
+        <v>3.364956696673918</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.05751661896004386</v>
+        <v>0.06124635825815861</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1291793689797112</v>
+        <v>0.1265328955558792</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05875185526284415</v>
+        <v>0.05777915794962067</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.05178321752347959</v>
+        <v>0.05342154178804824</v>
       </c>
     </row>
     <row r="19">
